--- a/Process/Timesheet/PTW-Timesheet 1 (4).xlsx
+++ b/Process/Timesheet/PTW-Timesheet 1 (4).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35551012-1E93-4EAF-910B-0E1D002D44C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00D4F0BB-6FD3-4826-9DD8-E3F3149753D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="343">
   <si>
     <t>Resource Name</t>
   </si>
@@ -936,7 +936,16 @@
     <t>Exploration on Angular, Entity Framework</t>
   </si>
   <si>
-    <t>HLD,typescript exploration</t>
+    <t>HLD(services,components),typescript exploration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HLD </t>
+  </si>
+  <si>
+    <t>meeting with team-30 mins(HLD),(services,components,data history)-1hr</t>
+  </si>
+  <si>
+    <t>Preparing for review-3hrs,self exploration-2 hrs.total-5 hrs</t>
   </si>
   <si>
     <t>angular exploration</t>
@@ -1036,7 +1045,7 @@
     <t xml:space="preserve">lunch and break 1hr 30mins, clearing others doubts - 2hrs </t>
   </si>
   <si>
-    <t>Layout for Head</t>
+    <t>Layout for TMS</t>
   </si>
   <si>
     <t>Team Discussion about HLD - 30mins, Meeting with Rafi - 45mins, Session with Rafi about Services - 35mins, Team Discussion for split the works - 30mins, Bootstrap tutorial - 120mins</t>
@@ -1057,9 +1066,6 @@
     <t>3omis : Component concept in Angular,1 hrs : Softskill session,1.30 mins : Break time</t>
   </si>
   <si>
-    <t>Layout for TMS</t>
-  </si>
-  <si>
     <t>Meeting with Rafi-45 Min,Team discussion for splitting the topics-60 min,Session About Services and HLD-30 min,Recall the previous day work-30 min,Bootstrap tutorial-120 min</t>
   </si>
   <si>
@@ -1075,7 +1081,22 @@
     <t>Softskills session - 1 hours , Others (Lunch and break - 1 hour 30 mins)</t>
   </si>
   <si>
-    <t>team discussion on HLD-30min, meatting with rafi-45min, session on services and HLD-30min, bootstrap tutorial- 180mis.</t>
+    <t>exploration on web api,angular concepts</t>
+  </si>
+  <si>
+    <t>Databse Diagram for   TMS(user,course,topic,role,review,reviewstatus,department)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting with Rafi - 45 mins
+Team Discussion : 1 hr
+Worked on DB Diagram - 2.5 hr
+</t>
+  </si>
+  <si>
+    <t>team discussion on HLD-30min, meeting with rafi-45min, session on services and HLD-30min,discussion with team to split work-30min, bootstrap tutorial- 140mis.</t>
+  </si>
+  <si>
+    <t>lunch -1.30hr ,  desgin pattern discussion with rafi(flyweight) -60min</t>
   </si>
   <si>
     <t>Services and dependencies in HLD</t>
@@ -1103,7 +1124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1209,6 +1230,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1289,7 +1315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1398,6 +1424,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2359,14 +2388,14 @@
         <v>284</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="13" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="G2" s="28"/>
     </row>
@@ -2375,17 +2404,17 @@
         <v>13</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="35" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -2397,14 +2426,14 @@
         <v>265</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G4" s="13"/>
     </row>
@@ -2416,14 +2445,14 @@
         <v>265</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="24" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G5" s="29"/>
     </row>
@@ -2432,19 +2461,19 @@
         <v>19</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -2453,17 +2482,17 @@
         <v>20</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="13" t="s">
         <v>274</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -2472,17 +2501,17 @@
         <v>21</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>265</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="35" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -2494,14 +2523,14 @@
         <v>265</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -2513,14 +2542,14 @@
         <v>265</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="24" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -2532,11 +2561,11 @@
         <v>265</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="22" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>179</v>
@@ -2548,14 +2577,14 @@
         <v>86</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>182</v>
@@ -2579,7 +2608,7 @@
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" customWidth="1"/>
     <col min="5" max="5" width="42.42578125" customWidth="1"/>
     <col min="6" max="6" width="30.85546875" customWidth="1"/>
@@ -2633,17 +2662,17 @@
         <v>13</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="35" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -2652,104 +2681,104 @@
         <v>16</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7" ht="130.5" customHeight="1">
+    <row r="5" spans="1:7" ht="90" customHeight="1">
       <c r="A5" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="35" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:7" ht="53.25">
+    <row r="6" spans="1:7" ht="56.25" customHeight="1">
       <c r="A6" s="30" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="38" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="27">
+    <row r="7" spans="1:7" ht="54.75" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="33" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="13" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="82.5" customHeight="1">
+    <row r="8" spans="1:7" ht="110.25" customHeight="1">
       <c r="A8" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>265</v>
+        <v>331</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>332</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="35" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="40.5">
+    <row r="9" spans="1:7" ht="53.25">
       <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -2758,17 +2787,17 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="24" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -2778,7 +2807,7 @@
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="22" t="s">
@@ -2795,14 +2824,14 @@
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G12" s="4"/>
     </row>

--- a/Process/Timesheet/PTW-Timesheet 1 (4).xlsx
+++ b/Process/Timesheet/PTW-Timesheet 1 (4).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F77AE18-AC5F-4C8C-BF91-DB7DF86F37FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15B76917-96A5-4435-AA5B-EC85A02978A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="377">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1131,7 +1131,7 @@
     <t>lunch and others 90mins, Angular component binding - 1 hr, WebApi - 1hr, softskill session - 1hr</t>
   </si>
   <si>
-    <t>web api(Department)</t>
+    <t>web api(review)</t>
   </si>
   <si>
     <t>review the services,</t>
@@ -1229,24 +1229,6 @@
   </si>
   <si>
     <t>Explored on bootstrap - 40 mins,break - 1 hr</t>
-  </si>
-  <si>
-    <t>Team disussion -20mim, Meeting with rafi-  1hr, Team discussion-30min, learned bootstrap basics- 40 mins, working on layout for TMS - 1.45 mins</t>
-  </si>
-  <si>
-    <t>Lunch -35mins,Break-20 min</t>
-  </si>
-  <si>
-    <t>Building service for Department</t>
-  </si>
-  <si>
-    <t>Creating class files for all services</t>
-  </si>
-  <si>
-    <t>Team meeting -30 min , Client meeting - 60 mins ,Class files modification - 2 hrs, Updating MOM - 15 mins</t>
-  </si>
-  <si>
-    <t>lunch and others 90mins, how to use logger - 1hr and Scaffolding in VS code - 45 mins</t>
   </si>
 </sst>
 </file>
@@ -3026,8 +3008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE4816C-CAE5-4525-AB01-5036960B55BC}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="15"/>
@@ -3059,7 +3041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="63.75">
+    <row r="2" spans="1:7" ht="102">
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
@@ -3230,41 +3212,41 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="63" customHeight="1">
+    <row r="11" spans="1:7" ht="76.5">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="D11" s="14"/>
-      <c r="E11" s="14" t="s">
-        <v>377</v>
+      <c r="E11" s="22" t="s">
+        <v>311</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>378</v>
+        <v>179</v>
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="57.75" customHeight="1">
+    <row r="12" spans="1:7" ht="38.25">
       <c r="A12" s="16" t="s">
         <v>86</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>379</v>
+        <v>312</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>380</v>
+        <v>313</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>381</v>
+        <v>314</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>382</v>
+        <v>182</v>
       </c>
       <c r="G12" s="4"/>
     </row>
